--- a/AiTools/Club2Json.xlsx
+++ b/AiTools/Club2Json.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/AiTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A383B21-F067-834C-9A45-4ECB143C75BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459AA4DD-35A2-D148-B18B-A75406BB09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{79A27F44-289E-CF4D-BDDC-2B3D04736B0E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{79A27F44-289E-CF4D-BDDC-2B3D04736B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Club_id" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>file_Name</t>
   </si>
@@ -291,6 +291,45 @@
   </si>
   <si>
     <t>舵3木轮1</t>
+  </si>
+  <si>
+    <t>舵7木轮2</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>舵7木轮3</t>
+  </si>
+  <si>
+    <t>舵6木轮3</t>
+  </si>
+  <si>
+    <t>舵6木轮2</t>
+  </si>
+  <si>
+    <t>孔雀3凤凰3红雀3独角兽3蝎子1</t>
+  </si>
+  <si>
+    <t>s8木轮4火星2</t>
+  </si>
+  <si>
+    <t>s8火星4火星2</t>
+  </si>
+  <si>
+    <t>s8火星3火星1</t>
+  </si>
+  <si>
+    <t>蝙蝠3鲸鱼3孔雀2红雀2凤凰2独角兽2蝎子1</t>
+  </si>
+  <si>
+    <t>蝙蝠5鲸鱼5孔雀5凤凰5红雀5独角兽5蝎子3</t>
+  </si>
+  <si>
+    <t>蝙蝠4鲸鱼4孔雀4凤凰4红雀4独角兽4蝎子2</t>
+  </si>
+  <si>
+    <t>蝙蝠6鲸鱼6孔雀6凤凰6红雀6独角兽6蝎子4</t>
   </si>
 </sst>
 </file>
@@ -682,37 +721,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF678F-1615-6D46-BC8A-A3EB5DCB63CE}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="12" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="51" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -728,23 +819,101 @@
       <c r="E2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>37</v>
+      </c>
+      <c r="N2">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>19</v>
+      </c>
+      <c r="R2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -760,8 +929,47 @@
       <c r="E4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -775,92 +983,436 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>5</v>
       </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>63</v>
+      </c>
+      <c r="L6">
+        <v>63</v>
+      </c>
+      <c r="M6">
+        <v>63</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>45</v>
+      </c>
+      <c r="O10">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>27</v>
+      </c>
+      <c r="R10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="R11">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>39</v>
+      </c>
+      <c r="L12">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>33</v>
+      </c>
+      <c r="P12">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>33</v>
+      </c>
+      <c r="R12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -871,25 +1423,103 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>23</v>
+      </c>
+      <c r="P14">
+        <v>23</v>
+      </c>
+      <c r="Q14">
+        <v>23</v>
+      </c>
+      <c r="R14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>3</v>
@@ -903,148 +1533,389 @@
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>41</v>
+      </c>
+      <c r="L16">
+        <v>41</v>
+      </c>
+      <c r="M16">
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <v>41</v>
+      </c>
+      <c r="O16">
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <v>35</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+      <c r="R16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
       <c r="D17">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>60</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+      <c r="N18">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+      <c r="R18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>42</v>
+      </c>
+      <c r="L20">
+        <v>42</v>
+      </c>
+      <c r="M20">
+        <v>42</v>
+      </c>
+      <c r="N20">
+        <v>42</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
+      <c r="O21">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="P21">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="Q21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="R21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47641F1D-612A-7044-B521-2E08CE3C0554}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/AiTools/Club2Json.xlsx
+++ b/AiTools/Club2Json.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/AiTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459AA4DD-35A2-D148-B18B-A75406BB09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A540F-10EA-6744-B0B1-61D404694188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{79A27F44-289E-CF4D-BDDC-2B3D04736B0E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{79A27F44-289E-CF4D-BDDC-2B3D04736B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Club_id" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Club_id!$C$1:$C$1001</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,12 +380,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF678F-1615-6D46-BC8A-A3EB5DCB63CE}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1923,10 +1940,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47641F1D-612A-7044-B521-2E08CE3C0554}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,7 +1984,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2002,7 +2020,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2110,7 +2128,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2146,7 +2164,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2175,19 +2193,19 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -2203,19 +2221,19 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>37</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="2"/>
@@ -2230,7 +2248,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2258,7 +2276,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2287,19 +2305,19 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>55</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>12</v>
       </c>
       <c r="F12" s="2"/>
@@ -2315,19 +2333,19 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>64</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <v>11</v>
       </c>
       <c r="F13" s="2"/>
@@ -2342,7 +2360,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2370,7 +2388,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -2426,7 +2444,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2454,7 +2472,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2483,19 +2501,19 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="7">
         <v>26</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="7">
         <v>5</v>
       </c>
       <c r="F19" s="2"/>
@@ -2510,7 +2528,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2539,19 +2557,19 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>2</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="7">
         <v>32</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="7">
         <v>9</v>
       </c>
       <c r="F21" s="2"/>
@@ -2567,19 +2585,19 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="8">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>38</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="8">
         <v>4</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <v>6</v>
       </c>
       <c r="F22" s="2"/>
@@ -2594,7 +2612,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -2622,7 +2640,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -2679,19 +2697,19 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="8">
         <v>2</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="8">
         <v>63</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="8">
         <v>10</v>
       </c>
       <c r="F26" s="2"/>
@@ -2706,7 +2724,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -2734,7 +2752,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -2762,7 +2780,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -2790,7 +2808,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -2818,7 +2836,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -2847,19 +2865,19 @@
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>3</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="7">
         <v>27</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="7">
         <v>7</v>
       </c>
       <c r="F32" s="2"/>
@@ -2902,7 +2920,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -2931,19 +2949,19 @@
       <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="8">
         <v>3</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="8">
         <v>39</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="8">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <v>5</v>
       </c>
       <c r="F35" s="2"/>
@@ -2959,19 +2977,19 @@
       <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="8">
         <v>3</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="8">
         <v>45</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="8">
         <v>10</v>
       </c>
       <c r="F36" s="2"/>
@@ -2986,7 +3004,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -3014,7 +3032,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -3042,7 +3060,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -3070,7 +3088,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -3098,7 +3116,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -3154,7 +3172,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3182,7 +3200,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -3294,7 +3312,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3322,7 +3340,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>6</v>
       </c>
@@ -3350,7 +3368,7 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>6</v>
       </c>
@@ -3378,7 +3396,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>6</v>
       </c>
@@ -3406,7 +3424,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>6</v>
       </c>
@@ -3434,7 +3452,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>6</v>
       </c>
@@ -3518,7 +3536,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>6</v>
       </c>
@@ -3547,19 +3565,19 @@
       <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="8">
         <v>60</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="8">
         <v>4</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="8">
         <v>12</v>
       </c>
       <c r="F57" s="2"/>
@@ -3574,7 +3592,7 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -3602,7 +3620,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3620,7 +3638,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3638,7 +3656,7 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3656,7 +3674,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3674,7 +3692,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3692,7 +3710,7 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3710,7 +3728,7 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3728,7 +3746,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3746,7 +3764,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3764,7 +3782,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3782,7 +3800,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3800,7 +3818,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3818,7 +3836,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3836,7 +3854,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3854,7 +3872,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3872,7 +3890,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3890,7 +3908,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3908,7 +3926,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3926,7 +3944,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3944,7 +3962,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3962,7 +3980,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3980,7 +3998,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3998,7 +4016,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4016,7 +4034,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4034,7 +4052,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4052,7 +4070,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4070,7 +4088,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4088,7 +4106,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4106,7 +4124,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4124,7 +4142,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4142,7 +4160,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4160,7 +4178,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4178,7 +4196,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4196,7 +4214,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4214,7 +4232,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4232,7 +4250,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4250,7 +4268,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4268,7 +4286,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4286,7 +4304,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4304,7 +4322,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4322,7 +4340,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4340,7 +4358,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4358,7 +4376,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4370,7 +4388,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4382,7 +4400,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4394,7 +4412,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4406,7 +4424,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4418,7 +4436,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4430,7 +4448,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4442,7 +4460,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4454,7 +4472,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4466,7 +4484,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4478,7 +4496,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4490,7 +4508,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4502,7 +4520,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4514,7 +4532,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4526,7 +4544,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4538,7 +4556,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4550,7 +4568,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4562,7 +4580,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4574,7 +4592,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4586,7 +4604,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4598,7 +4616,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4610,7 +4628,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4622,7 +4640,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4634,7 +4652,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4646,7 +4664,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4658,7 +4676,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4670,7 +4688,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4682,7 +4700,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4694,7 +4712,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4706,7 +4724,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4718,7 +4736,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4730,7 +4748,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4742,7 +4760,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4754,7 +4772,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4766,7 +4784,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4778,7 +4796,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4790,7 +4808,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4802,7 +4820,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4814,7 +4832,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4826,7 +4844,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4838,7 +4856,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4850,7 +4868,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4862,7 +4880,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4874,7 +4892,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4886,7 +4904,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4898,7 +4916,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4910,7 +4928,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4922,7 +4940,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4934,7 +4952,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4946,7 +4964,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4958,7 +4976,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4970,7 +4988,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4982,7 +5000,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4994,7 +5012,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5006,7 +5024,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5018,7 +5036,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5030,7 +5048,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5042,7 +5060,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5054,7 +5072,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5066,7 +5084,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5078,7 +5096,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5090,7 +5108,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5102,7 +5120,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5114,7 +5132,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5126,7 +5144,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5138,7 +5156,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5150,7 +5168,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5162,7 +5180,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5174,7 +5192,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5186,7 +5204,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5198,7 +5216,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5210,7 +5228,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5222,7 +5240,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5234,7 +5252,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5246,7 +5264,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5258,7 +5276,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5270,7 +5288,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5282,7 +5300,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5294,7 +5312,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5306,7 +5324,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5318,7 +5336,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5330,7 +5348,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5342,7 +5360,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5354,7 +5372,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5366,7 +5384,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5378,7 +5396,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5390,7 +5408,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5402,7 +5420,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5414,7 +5432,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5426,7 +5444,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5438,7 +5456,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5450,7 +5468,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5462,7 +5480,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5474,7 +5492,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5486,7 +5504,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5498,7 +5516,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5510,7 +5528,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5522,7 +5540,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5534,7 +5552,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5546,7 +5564,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -5558,7 +5576,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -5570,7 +5588,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -5582,7 +5600,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -5594,7 +5612,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -5606,7 +5624,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -5618,7 +5636,7 @@
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -5630,7 +5648,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -5642,7 +5660,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5654,7 +5672,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -5666,7 +5684,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -5678,7 +5696,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -5690,7 +5708,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -5702,7 +5720,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5714,7 +5732,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -5726,7 +5744,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -5738,7 +5756,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -5750,7 +5768,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -5762,7 +5780,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5774,7 +5792,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -5786,7 +5804,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -5798,7 +5816,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5810,7 +5828,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -5822,7 +5840,7 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -5834,7 +5852,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -5846,7 +5864,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -5858,7 +5876,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5870,7 +5888,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -5882,7 +5900,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -5894,7 +5912,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -5906,7 +5924,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -5918,7 +5936,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -5930,7 +5948,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -5942,7 +5960,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -5954,7 +5972,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -5966,7 +5984,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -5978,7 +5996,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -5990,7 +6008,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6002,7 +6020,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6014,7 +6032,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6026,7 +6044,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -6038,7 +6056,7 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -6050,7 +6068,7 @@
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -6062,7 +6080,7 @@
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -6074,7 +6092,7 @@
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -6086,7 +6104,7 @@
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -6098,7 +6116,7 @@
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -6110,7 +6128,7 @@
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -6122,7 +6140,7 @@
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -6134,7 +6152,7 @@
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -6146,7 +6164,7 @@
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -6158,7 +6176,7 @@
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -6170,7 +6188,7 @@
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -6182,7 +6200,7 @@
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -6194,7 +6212,7 @@
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -6206,7 +6224,7 @@
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -6218,7 +6236,7 @@
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -6230,7 +6248,7 @@
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -6242,7 +6260,7 @@
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -6254,7 +6272,7 @@
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -6266,7 +6284,7 @@
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -6278,7 +6296,7 @@
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -6290,7 +6308,7 @@
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -6302,7 +6320,7 @@
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -6314,7 +6332,7 @@
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -6326,7 +6344,7 @@
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -6338,7 +6356,7 @@
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -6350,7 +6368,7 @@
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -6362,7 +6380,7 @@
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -6374,7 +6392,7 @@
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -6386,7 +6404,7 @@
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -6398,7 +6416,7 @@
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -6410,7 +6428,7 @@
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -6422,7 +6440,7 @@
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -6434,7 +6452,7 @@
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -6446,7 +6464,7 @@
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -6458,7 +6476,7 @@
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -6470,7 +6488,7 @@
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -6482,7 +6500,7 @@
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -6494,7 +6512,7 @@
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -6506,7 +6524,7 @@
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -6518,7 +6536,7 @@
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -6530,7 +6548,7 @@
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -6542,7 +6560,7 @@
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -6554,7 +6572,7 @@
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -6566,7 +6584,7 @@
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -6578,7 +6596,7 @@
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -6590,7 +6608,7 @@
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -6602,7 +6620,7 @@
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -6614,7 +6632,7 @@
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -6626,7 +6644,7 @@
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -6638,7 +6656,7 @@
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -6650,7 +6668,7 @@
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -6662,7 +6680,7 @@
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -6674,7 +6692,7 @@
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -6686,7 +6704,7 @@
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -6698,7 +6716,7 @@
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -6710,7 +6728,7 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -6722,7 +6740,7 @@
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -6734,7 +6752,7 @@
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -6746,7 +6764,7 @@
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -6758,7 +6776,7 @@
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -6770,7 +6788,7 @@
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -6782,7 +6800,7 @@
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -6794,7 +6812,7 @@
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -6806,7 +6824,7 @@
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -6818,7 +6836,7 @@
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6830,7 +6848,7 @@
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -6842,7 +6860,7 @@
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -6854,7 +6872,7 @@
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -6866,7 +6884,7 @@
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -6878,7 +6896,7 @@
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -6890,7 +6908,7 @@
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -6902,7 +6920,7 @@
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -6914,7 +6932,7 @@
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -6926,7 +6944,7 @@
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -6938,7 +6956,7 @@
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -6950,7 +6968,7 @@
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -6962,7 +6980,7 @@
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -6974,7 +6992,7 @@
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -6986,7 +7004,7 @@
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -6998,7 +7016,7 @@
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -7010,7 +7028,7 @@
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -7022,7 +7040,7 @@
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -7034,7 +7052,7 @@
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -7046,7 +7064,7 @@
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -7058,7 +7076,7 @@
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -7070,7 +7088,7 @@
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -7082,7 +7100,7 @@
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -7094,7 +7112,7 @@
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -7106,7 +7124,7 @@
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -7118,7 +7136,7 @@
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -7130,7 +7148,7 @@
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -7142,7 +7160,7 @@
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -7154,7 +7172,7 @@
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -7166,7 +7184,7 @@
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -7178,7 +7196,7 @@
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -7190,7 +7208,7 @@
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -7202,7 +7220,7 @@
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -7214,7 +7232,7 @@
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -7226,7 +7244,7 @@
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -7238,7 +7256,7 @@
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -7250,7 +7268,7 @@
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -7262,7 +7280,7 @@
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -7274,7 +7292,7 @@
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -7286,7 +7304,7 @@
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -7298,7 +7316,7 @@
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7310,7 +7328,7 @@
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7322,7 +7340,7 @@
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7334,7 +7352,7 @@
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7346,7 +7364,7 @@
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -7358,7 +7376,7 @@
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7370,7 +7388,7 @@
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7382,7 +7400,7 @@
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7394,7 +7412,7 @@
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7406,7 +7424,7 @@
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7418,7 +7436,7 @@
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7430,7 +7448,7 @@
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -7442,7 +7460,7 @@
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -7454,7 +7472,7 @@
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -7466,7 +7484,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -7478,7 +7496,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -7490,7 +7508,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -7502,7 +7520,7 @@
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -7514,7 +7532,7 @@
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -7526,7 +7544,7 @@
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -7538,7 +7556,7 @@
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -7550,7 +7568,7 @@
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -7562,7 +7580,7 @@
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -7574,7 +7592,7 @@
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -7586,7 +7604,7 @@
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -7598,7 +7616,7 @@
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -7610,7 +7628,7 @@
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -7622,7 +7640,7 @@
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -7634,7 +7652,7 @@
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -7646,7 +7664,7 @@
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -7658,7 +7676,7 @@
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -7670,7 +7688,7 @@
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -7682,7 +7700,7 @@
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -7694,7 +7712,7 @@
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -7706,7 +7724,7 @@
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -7718,7 +7736,7 @@
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -7730,7 +7748,7 @@
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -7742,7 +7760,7 @@
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -7754,7 +7772,7 @@
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -7766,7 +7784,7 @@
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -7778,7 +7796,7 @@
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -7790,7 +7808,7 @@
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -7802,7 +7820,7 @@
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -7814,7 +7832,7 @@
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -7826,7 +7844,7 @@
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -7838,7 +7856,7 @@
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -7850,7 +7868,7 @@
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -7862,7 +7880,7 @@
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -7874,7 +7892,7 @@
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -7886,7 +7904,7 @@
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -7898,7 +7916,7 @@
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -7910,7 +7928,7 @@
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -7922,7 +7940,7 @@
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -7934,7 +7952,7 @@
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -7946,7 +7964,7 @@
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -7958,7 +7976,7 @@
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -7970,7 +7988,7 @@
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -7982,7 +8000,7 @@
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -7994,7 +8012,7 @@
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -8006,7 +8024,7 @@
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -8018,7 +8036,7 @@
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8030,7 +8048,7 @@
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -8042,7 +8060,7 @@
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -8054,7 +8072,7 @@
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -8066,7 +8084,7 @@
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -8078,7 +8096,7 @@
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -8090,7 +8108,7 @@
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -8102,7 +8120,7 @@
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -8114,7 +8132,7 @@
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -8126,7 +8144,7 @@
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -8138,7 +8156,7 @@
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -8150,7 +8168,7 @@
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -8162,7 +8180,7 @@
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -8174,7 +8192,7 @@
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -8186,7 +8204,7 @@
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -8198,7 +8216,7 @@
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -8210,7 +8228,7 @@
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -8222,7 +8240,7 @@
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -8234,7 +8252,7 @@
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -8246,7 +8264,7 @@
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -8258,7 +8276,7 @@
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -8270,7 +8288,7 @@
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -8282,7 +8300,7 @@
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -8294,7 +8312,7 @@
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -8306,7 +8324,7 @@
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -8318,7 +8336,7 @@
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -8330,7 +8348,7 @@
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -8342,7 +8360,7 @@
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -8354,7 +8372,7 @@
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -8366,7 +8384,7 @@
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -8378,7 +8396,7 @@
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -8390,7 +8408,7 @@
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -8402,7 +8420,7 @@
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -8414,7 +8432,7 @@
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -8426,7 +8444,7 @@
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -8438,7 +8456,7 @@
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -8450,7 +8468,7 @@
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -8462,7 +8480,7 @@
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -8474,7 +8492,7 @@
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -8486,7 +8504,7 @@
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -8498,7 +8516,7 @@
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -8510,7 +8528,7 @@
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -8522,7 +8540,7 @@
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -8534,7 +8552,7 @@
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -8546,7 +8564,7 @@
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -8558,7 +8576,7 @@
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -8570,7 +8588,7 @@
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -8582,7 +8600,7 @@
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -8594,7 +8612,7 @@
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -8606,7 +8624,7 @@
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -8618,7 +8636,7 @@
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -8630,7 +8648,7 @@
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -8642,7 +8660,7 @@
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -8654,7 +8672,7 @@
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -8666,7 +8684,7 @@
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -8678,7 +8696,7 @@
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -8690,7 +8708,7 @@
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -8702,7 +8720,7 @@
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -8714,7 +8732,7 @@
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -8726,7 +8744,7 @@
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -8738,7 +8756,7 @@
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -8750,7 +8768,7 @@
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -8762,7 +8780,7 @@
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -8774,7 +8792,7 @@
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -8786,7 +8804,7 @@
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -8798,7 +8816,7 @@
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -8810,7 +8828,7 @@
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -8822,7 +8840,7 @@
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -8834,7 +8852,7 @@
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -8846,7 +8864,7 @@
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -8858,7 +8876,7 @@
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -8870,7 +8888,7 @@
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -8882,7 +8900,7 @@
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -8894,7 +8912,7 @@
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -8906,7 +8924,7 @@
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -8918,7 +8936,7 @@
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -8930,7 +8948,7 @@
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -8942,7 +8960,7 @@
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -8954,7 +8972,7 @@
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -8966,7 +8984,7 @@
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -8978,7 +8996,7 @@
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -8990,7 +9008,7 @@
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -9002,7 +9020,7 @@
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -9014,7 +9032,7 @@
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -9026,7 +9044,7 @@
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -9038,7 +9056,7 @@
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -9050,7 +9068,7 @@
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -9062,7 +9080,7 @@
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -9074,7 +9092,7 @@
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -9086,7 +9104,7 @@
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -9098,7 +9116,7 @@
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -9110,7 +9128,7 @@
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -9122,7 +9140,7 @@
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -9134,7 +9152,7 @@
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -9146,7 +9164,7 @@
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -9158,7 +9176,7 @@
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -9170,7 +9188,7 @@
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -9182,7 +9200,7 @@
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -9194,7 +9212,7 @@
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -9206,7 +9224,7 @@
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -9218,7 +9236,7 @@
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -9230,7 +9248,7 @@
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -9242,7 +9260,7 @@
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -9254,7 +9272,7 @@
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -9266,7 +9284,7 @@
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -9278,7 +9296,7 @@
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -9290,7 +9308,7 @@
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -9302,7 +9320,7 @@
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -9314,7 +9332,7 @@
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -9326,7 +9344,7 @@
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -9338,7 +9356,7 @@
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -9350,7 +9368,7 @@
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -9362,7 +9380,7 @@
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -9374,7 +9392,7 @@
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -9386,7 +9404,7 @@
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -9398,7 +9416,7 @@
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -9410,7 +9428,7 @@
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -9422,7 +9440,7 @@
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -9434,7 +9452,7 @@
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -9446,7 +9464,7 @@
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -9458,7 +9476,7 @@
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -9470,7 +9488,7 @@
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -9482,7 +9500,7 @@
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -9494,7 +9512,7 @@
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -9506,7 +9524,7 @@
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -9518,7 +9536,7 @@
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -9530,7 +9548,7 @@
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -9542,7 +9560,7 @@
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -9554,7 +9572,7 @@
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -9566,7 +9584,7 @@
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -9578,7 +9596,7 @@
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -9590,7 +9608,7 @@
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -9602,7 +9620,7 @@
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -9614,7 +9632,7 @@
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -9626,7 +9644,7 @@
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -9638,7 +9656,7 @@
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -9650,7 +9668,7 @@
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -9662,7 +9680,7 @@
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -9674,7 +9692,7 @@
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -9686,7 +9704,7 @@
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -9698,7 +9716,7 @@
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -9710,7 +9728,7 @@
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -9722,7 +9740,7 @@
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -9734,7 +9752,7 @@
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -9746,7 +9764,7 @@
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -9758,7 +9776,7 @@
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -9770,7 +9788,7 @@
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -9782,7 +9800,7 @@
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -9794,7 +9812,7 @@
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -9806,7 +9824,7 @@
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -9818,7 +9836,7 @@
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -9830,7 +9848,7 @@
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -9842,7 +9860,7 @@
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -9854,7 +9872,7 @@
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -9866,7 +9884,7 @@
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -9878,7 +9896,7 @@
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -9890,7 +9908,7 @@
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -9902,7 +9920,7 @@
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -9914,7 +9932,7 @@
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -9926,7 +9944,7 @@
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -9938,7 +9956,7 @@
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -9950,7 +9968,7 @@
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -9962,7 +9980,7 @@
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -9974,7 +9992,7 @@
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -9986,7 +10004,7 @@
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -9998,7 +10016,7 @@
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -10010,7 +10028,7 @@
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -10022,7 +10040,7 @@
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -10034,7 +10052,7 @@
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -10046,7 +10064,7 @@
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -10058,7 +10076,7 @@
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -10070,7 +10088,7 @@
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -10082,7 +10100,7 @@
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -10094,7 +10112,7 @@
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -10106,7 +10124,7 @@
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -10118,7 +10136,7 @@
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -10130,7 +10148,7 @@
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -10142,7 +10160,7 @@
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -10154,7 +10172,7 @@
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -10166,7 +10184,7 @@
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -10178,7 +10196,7 @@
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -10190,7 +10208,7 @@
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -10202,7 +10220,7 @@
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -10214,7 +10232,7 @@
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -10226,7 +10244,7 @@
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -10238,7 +10256,7 @@
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -10250,7 +10268,7 @@
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -10262,7 +10280,7 @@
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -10274,7 +10292,7 @@
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -10286,7 +10304,7 @@
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -10298,7 +10316,7 @@
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -10310,7 +10328,7 @@
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -10322,7 +10340,7 @@
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -10334,7 +10352,7 @@
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -10346,7 +10364,7 @@
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -10358,7 +10376,7 @@
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -10370,7 +10388,7 @@
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -10382,7 +10400,7 @@
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -10394,7 +10412,7 @@
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -10406,7 +10424,7 @@
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -10418,7 +10436,7 @@
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -10430,7 +10448,7 @@
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -10442,7 +10460,7 @@
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -10454,7 +10472,7 @@
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -10466,7 +10484,7 @@
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -10478,7 +10496,7 @@
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -10490,7 +10508,7 @@
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -10502,7 +10520,7 @@
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -10514,7 +10532,7 @@
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -10526,7 +10544,7 @@
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -10538,7 +10556,7 @@
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -10550,7 +10568,7 @@
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -10562,7 +10580,7 @@
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -10574,7 +10592,7 @@
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -10586,7 +10604,7 @@
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -10598,7 +10616,7 @@
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -10610,7 +10628,7 @@
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -10622,7 +10640,7 @@
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -10634,7 +10652,7 @@
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -10646,7 +10664,7 @@
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -10658,7 +10676,7 @@
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -10670,7 +10688,7 @@
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -10682,7 +10700,7 @@
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -10694,7 +10712,7 @@
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -10706,7 +10724,7 @@
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -10718,7 +10736,7 @@
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -10730,7 +10748,7 @@
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -10742,7 +10760,7 @@
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -10754,7 +10772,7 @@
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -10766,7 +10784,7 @@
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -10778,7 +10796,7 @@
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -10790,7 +10808,7 @@
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -10802,7 +10820,7 @@
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -10814,7 +10832,7 @@
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -10826,7 +10844,7 @@
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -10838,7 +10856,7 @@
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -10850,7 +10868,7 @@
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -10862,7 +10880,7 @@
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -10874,7 +10892,7 @@
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -10886,7 +10904,7 @@
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -10898,7 +10916,7 @@
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -10910,7 +10928,7 @@
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -10922,7 +10940,7 @@
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -10934,7 +10952,7 @@
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -10946,7 +10964,7 @@
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -10958,7 +10976,7 @@
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -10970,7 +10988,7 @@
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -10982,7 +11000,7 @@
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -10994,7 +11012,7 @@
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -11006,7 +11024,7 @@
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -11018,7 +11036,7 @@
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -11030,7 +11048,7 @@
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -11042,7 +11060,7 @@
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -11054,7 +11072,7 @@
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -11066,7 +11084,7 @@
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -11078,7 +11096,7 @@
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -11090,7 +11108,7 @@
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -11102,7 +11120,7 @@
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -11114,7 +11132,7 @@
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -11126,7 +11144,7 @@
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -11138,7 +11156,7 @@
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -11150,7 +11168,7 @@
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -11162,7 +11180,7 @@
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -11174,7 +11192,7 @@
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -11186,7 +11204,7 @@
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -11198,7 +11216,7 @@
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -11210,7 +11228,7 @@
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -11222,7 +11240,7 @@
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -11234,7 +11252,7 @@
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -11246,7 +11264,7 @@
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -11258,7 +11276,7 @@
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -11270,7 +11288,7 @@
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -11282,7 +11300,7 @@
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -11294,7 +11312,7 @@
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -11306,7 +11324,7 @@
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -11318,7 +11336,7 @@
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -11330,7 +11348,7 @@
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -11342,7 +11360,7 @@
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -11354,7 +11372,7 @@
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -11366,7 +11384,7 @@
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -11378,7 +11396,7 @@
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -11390,7 +11408,7 @@
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -11402,7 +11420,7 @@
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -11414,7 +11432,7 @@
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -11426,7 +11444,7 @@
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -11438,7 +11456,7 @@
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -11450,7 +11468,7 @@
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -11462,7 +11480,7 @@
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -11474,7 +11492,7 @@
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -11486,7 +11504,7 @@
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -11498,7 +11516,7 @@
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -11510,7 +11528,7 @@
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -11522,7 +11540,7 @@
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -11534,7 +11552,7 @@
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -11546,7 +11564,7 @@
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -11558,7 +11576,7 @@
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -11570,7 +11588,7 @@
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -11582,7 +11600,7 @@
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -11594,7 +11612,7 @@
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -11606,7 +11624,7 @@
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -11618,7 +11636,7 @@
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -11630,7 +11648,7 @@
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -11642,7 +11660,7 @@
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -11654,7 +11672,7 @@
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -11666,7 +11684,7 @@
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -11678,7 +11696,7 @@
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -11690,7 +11708,7 @@
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -11702,7 +11720,7 @@
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -11714,7 +11732,7 @@
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -11726,7 +11744,7 @@
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -11738,7 +11756,7 @@
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -11750,7 +11768,7 @@
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -11762,7 +11780,7 @@
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -11774,7 +11792,7 @@
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -11786,7 +11804,7 @@
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -11798,7 +11816,7 @@
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -11810,7 +11828,7 @@
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -11822,7 +11840,7 @@
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -11834,7 +11852,7 @@
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -11846,7 +11864,7 @@
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -11858,7 +11876,7 @@
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -11870,7 +11888,7 @@
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -11882,7 +11900,7 @@
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -11894,7 +11912,7 @@
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -11906,7 +11924,7 @@
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -11918,7 +11936,7 @@
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -11930,7 +11948,7 @@
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -11942,7 +11960,7 @@
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -11954,7 +11972,7 @@
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -11966,7 +11984,7 @@
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -11978,7 +11996,7 @@
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -11990,7 +12008,7 @@
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -12002,7 +12020,7 @@
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -12014,7 +12032,7 @@
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -12026,7 +12044,7 @@
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -12038,7 +12056,7 @@
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -12050,7 +12068,7 @@
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -12062,7 +12080,7 @@
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -12074,7 +12092,7 @@
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -12086,7 +12104,7 @@
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -12098,7 +12116,7 @@
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -12110,7 +12128,7 @@
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -12122,7 +12140,7 @@
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -12134,7 +12152,7 @@
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -12146,7 +12164,7 @@
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -12158,7 +12176,7 @@
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -12170,7 +12188,7 @@
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -12182,7 +12200,7 @@
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -12194,7 +12212,7 @@
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -12206,7 +12224,7 @@
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -12218,7 +12236,7 @@
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -12230,7 +12248,7 @@
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -12242,7 +12260,7 @@
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -12254,7 +12272,7 @@
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -12266,7 +12284,7 @@
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -12278,7 +12296,7 @@
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -12290,7 +12308,7 @@
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -12302,7 +12320,7 @@
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -12314,7 +12332,7 @@
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -12326,7 +12344,7 @@
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -12338,7 +12356,7 @@
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -12350,7 +12368,7 @@
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -12362,7 +12380,7 @@
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -12374,7 +12392,7 @@
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -12386,7 +12404,7 @@
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -12398,7 +12416,7 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -12410,7 +12428,7 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -12422,7 +12440,7 @@
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -12434,7 +12452,7 @@
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -12446,7 +12464,7 @@
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -12458,7 +12476,7 @@
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -12470,7 +12488,7 @@
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -12482,7 +12500,7 @@
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -12494,7 +12512,7 @@
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -12506,7 +12524,7 @@
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -12518,7 +12536,7 @@
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -12530,7 +12548,7 @@
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -12542,7 +12560,7 @@
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -12554,7 +12572,7 @@
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -12566,7 +12584,7 @@
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -12578,7 +12596,7 @@
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -12590,7 +12608,7 @@
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -12602,7 +12620,7 @@
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -12614,7 +12632,7 @@
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -12626,7 +12644,7 @@
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -12638,7 +12656,7 @@
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -12650,7 +12668,7 @@
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -12662,7 +12680,7 @@
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -12674,7 +12692,7 @@
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -12686,7 +12704,7 @@
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -12698,7 +12716,7 @@
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -12710,7 +12728,7 @@
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -12722,7 +12740,7 @@
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -12734,7 +12752,7 @@
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -12746,7 +12764,7 @@
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -12758,7 +12776,7 @@
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -12770,7 +12788,7 @@
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -12782,7 +12800,7 @@
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -12794,7 +12812,7 @@
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -12806,7 +12824,7 @@
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -12818,7 +12836,7 @@
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -12830,7 +12848,7 @@
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -12842,7 +12860,7 @@
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -12854,7 +12872,7 @@
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -12866,7 +12884,7 @@
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -12878,7 +12896,7 @@
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -12890,7 +12908,7 @@
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -12902,7 +12920,7 @@
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -12914,7 +12932,7 @@
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -12926,7 +12944,7 @@
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -12938,7 +12956,7 @@
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -12950,7 +12968,7 @@
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -12962,7 +12980,7 @@
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -12974,7 +12992,7 @@
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -12986,7 +13004,7 @@
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -12998,7 +13016,7 @@
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -13010,7 +13028,7 @@
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -13022,7 +13040,7 @@
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -13034,7 +13052,7 @@
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -13046,7 +13064,7 @@
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -13058,7 +13076,7 @@
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -13070,7 +13088,7 @@
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -13082,7 +13100,7 @@
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -13094,7 +13112,7 @@
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -13106,7 +13124,7 @@
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -13118,7 +13136,7 @@
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -13130,7 +13148,7 @@
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -13142,7 +13160,7 @@
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -13154,7 +13172,7 @@
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -13166,7 +13184,7 @@
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -13178,7 +13196,7 @@
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -13190,7 +13208,7 @@
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -13202,7 +13220,7 @@
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -13214,7 +13232,7 @@
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -13226,7 +13244,7 @@
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -13238,7 +13256,7 @@
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -13250,7 +13268,7 @@
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -13262,7 +13280,7 @@
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -13274,7 +13292,7 @@
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -13286,7 +13304,7 @@
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -13298,7 +13316,7 @@
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -13310,7 +13328,7 @@
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -13322,7 +13340,7 @@
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -13334,7 +13352,7 @@
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -13346,7 +13364,7 @@
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -13358,7 +13376,7 @@
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -13370,7 +13388,7 @@
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -13382,7 +13400,7 @@
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -13394,7 +13412,7 @@
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -13406,7 +13424,7 @@
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -13418,7 +13436,7 @@
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -13430,7 +13448,7 @@
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -13442,7 +13460,7 @@
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -13454,7 +13472,7 @@
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -13466,7 +13484,7 @@
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -13478,7 +13496,7 @@
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -13490,7 +13508,7 @@
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -13502,7 +13520,7 @@
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -13514,7 +13532,7 @@
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -13526,7 +13544,7 @@
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -13538,7 +13556,7 @@
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -13550,7 +13568,7 @@
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -13562,7 +13580,7 @@
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -13574,7 +13592,7 @@
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -13586,7 +13604,7 @@
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -13598,7 +13616,7 @@
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -13610,7 +13628,7 @@
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -13622,7 +13640,7 @@
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -13634,7 +13652,7 @@
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -13646,7 +13664,7 @@
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -13658,7 +13676,7 @@
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -13670,7 +13688,7 @@
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -13682,7 +13700,7 @@
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -13694,7 +13712,7 @@
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -13706,7 +13724,7 @@
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -13718,7 +13736,7 @@
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -13730,7 +13748,7 @@
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -13742,7 +13760,7 @@
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -13754,7 +13772,7 @@
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -13766,7 +13784,7 @@
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -13778,7 +13796,7 @@
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -13790,7 +13808,7 @@
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -13802,7 +13820,7 @@
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -13814,7 +13832,7 @@
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -13826,7 +13844,7 @@
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -13838,7 +13856,7 @@
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -13850,7 +13868,7 @@
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -13862,7 +13880,7 @@
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -13874,7 +13892,7 @@
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -13886,7 +13904,7 @@
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -13898,7 +13916,7 @@
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -13910,7 +13928,7 @@
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -13922,7 +13940,7 @@
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -13934,7 +13952,7 @@
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -13946,7 +13964,7 @@
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -13958,7 +13976,7 @@
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -13970,7 +13988,7 @@
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -13982,7 +14000,7 @@
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -13994,7 +14012,7 @@
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -14006,7 +14024,7 @@
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -14018,7 +14036,7 @@
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -14030,7 +14048,7 @@
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -14042,7 +14060,7 @@
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -14054,7 +14072,7 @@
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -14066,7 +14084,7 @@
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -14078,7 +14096,7 @@
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -14090,7 +14108,7 @@
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -14102,7 +14120,7 @@
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -14114,7 +14132,7 @@
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -14126,7 +14144,7 @@
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -14138,7 +14156,7 @@
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -14150,7 +14168,7 @@
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -14162,7 +14180,7 @@
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -14174,7 +14192,7 @@
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -14186,7 +14204,7 @@
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -14198,7 +14216,7 @@
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -14210,7 +14228,7 @@
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -14222,7 +14240,7 @@
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -14234,7 +14252,7 @@
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -14246,7 +14264,7 @@
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -14258,7 +14276,7 @@
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -14270,7 +14288,7 @@
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -14282,7 +14300,7 @@
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -14294,7 +14312,7 @@
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -14306,7 +14324,7 @@
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -14318,7 +14336,7 @@
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -14330,7 +14348,7 @@
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -14342,7 +14360,7 @@
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -14354,7 +14372,7 @@
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -14366,7 +14384,7 @@
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -14378,7 +14396,7 @@
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -14390,7 +14408,7 @@
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -14402,7 +14420,7 @@
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -14414,7 +14432,7 @@
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -14426,7 +14444,7 @@
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -14438,7 +14456,7 @@
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -14450,7 +14468,7 @@
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -14462,7 +14480,7 @@
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -14474,7 +14492,7 @@
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -14486,7 +14504,7 @@
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -14498,7 +14516,7 @@
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -14510,7 +14528,7 @@
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -14522,7 +14540,7 @@
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -14534,7 +14552,7 @@
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -14546,7 +14564,7 @@
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -14558,7 +14576,7 @@
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -14570,7 +14588,7 @@
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -14582,7 +14600,7 @@
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -14594,7 +14612,7 @@
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -14606,7 +14624,7 @@
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -14618,7 +14636,7 @@
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -14630,7 +14648,7 @@
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -14642,7 +14660,7 @@
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -14654,7 +14672,7 @@
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -14666,7 +14684,7 @@
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -14678,7 +14696,7 @@
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -14690,7 +14708,7 @@
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -14702,7 +14720,7 @@
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -14714,7 +14732,7 @@
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -14726,7 +14744,7 @@
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -14738,7 +14756,7 @@
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -14750,7 +14768,7 @@
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -14762,7 +14780,7 @@
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -14774,7 +14792,7 @@
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -14786,7 +14804,7 @@
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -14798,7 +14816,7 @@
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -14810,7 +14828,7 @@
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -14822,7 +14840,7 @@
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -14834,7 +14852,7 @@
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -14846,7 +14864,7 @@
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -14858,7 +14876,7 @@
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -14870,7 +14888,7 @@
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -14882,7 +14900,7 @@
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -14894,7 +14912,7 @@
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -14906,7 +14924,7 @@
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -14918,7 +14936,7 @@
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -14930,7 +14948,7 @@
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -14942,7 +14960,7 @@
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -14954,7 +14972,7 @@
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -14966,7 +14984,7 @@
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -14978,7 +14996,7 @@
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -14990,7 +15008,7 @@
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -15002,7 +15020,7 @@
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -15014,7 +15032,7 @@
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -15026,7 +15044,7 @@
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -15038,7 +15056,7 @@
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -15050,7 +15068,7 @@
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -15062,7 +15080,7 @@
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -15074,7 +15092,7 @@
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
     </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -15086,7 +15104,7 @@
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
     </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -15098,7 +15116,7 @@
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -15110,7 +15128,7 @@
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
     </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -15122,7 +15140,7 @@
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -15134,7 +15152,7 @@
       <c r="I998" s="2"/>
       <c r="J998" s="2"/>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -15146,7 +15164,7 @@
       <c r="I999" s="2"/>
       <c r="J999" s="2"/>
     </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -15158,7 +15176,7 @@
       <c r="I1000" s="2"/>
       <c r="J1000" s="2"/>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="2"/>
@@ -15171,6 +15189,14 @@
       <c r="J1001" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C1001" xr:uid="{47641F1D-612A-7044-B521-2E08CE3C0554}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>